--- a/output/results_pivoted_formatted.xlsx
+++ b/output/results_pivoted_formatted.xlsx
@@ -4778,13 +4778,13 @@
         <v>141</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="e">
-        <v>#NUM!</v>
+        <v>2823</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2823</v>
       </c>
       <c r="G184" s="1" t="n">
-        <v>0</v>
+        <v>19.3053432781469</v>
       </c>
     </row>
     <row r="185">
@@ -10789,31 +10789,31 @@
         <v>141</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="e">
-        <v>#NUM!</v>
+        <v>98</v>
+      </c>
+      <c r="F175" t="n">
+        <v>98</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>0</v>
+        <v>23.9327001855272</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="e">
-        <v>#NUM!</v>
+        <v>2416</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2416</v>
       </c>
       <c r="J175" s="1" t="n">
-        <v>0</v>
+        <v>19.8056375583133</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="e">
-        <v>#NUM!</v>
+        <v>284</v>
+      </c>
+      <c r="L175" t="n">
+        <v>284</v>
       </c>
       <c r="M175" s="1" t="n">
-        <v>0</v>
+        <v>13.9616462247909</v>
       </c>
     </row>
     <row r="176">
@@ -22404,76 +22404,76 @@
         <v>141</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="e">
-        <v>#NUM!</v>
+        <v>139</v>
+      </c>
+      <c r="F173" t="n">
+        <v>139</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>0</v>
+        <v>12.5048735089736</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="e">
-        <v>#NUM!</v>
+        <v>518</v>
+      </c>
+      <c r="I173" t="n">
+        <v>518</v>
       </c>
       <c r="J173" s="1" t="n">
-        <v>0</v>
+        <v>16.6334280116951</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="L173" t="n">
+        <v>15</v>
       </c>
       <c r="M173" s="1" t="n">
-        <v>0</v>
+        <v>23.0434054834055</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="e">
-        <v>#NUM!</v>
+        <v>50</v>
+      </c>
+      <c r="O173" t="n">
+        <v>50</v>
       </c>
       <c r="P173" s="1" t="n">
-        <v>0</v>
+        <v>14.020596446245</v>
       </c>
       <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" t="e">
-        <v>#NUM!</v>
+        <v>952</v>
+      </c>
+      <c r="R173" t="n">
+        <v>952</v>
       </c>
       <c r="S173" s="1" t="n">
-        <v>0</v>
+        <v>19.3041611308089</v>
       </c>
       <c r="T173" t="n">
-        <v>0</v>
-      </c>
-      <c r="U173" t="e">
-        <v>#NUM!</v>
+        <v>18</v>
+      </c>
+      <c r="U173" t="n">
+        <v>18</v>
       </c>
       <c r="V173" s="1" t="n">
-        <v>0</v>
+        <v>13.7076195629414</v>
       </c>
       <c r="W173" t="n">
-        <v>0</v>
-      </c>
-      <c r="X173" t="e">
-        <v>#NUM!</v>
+        <v>1102</v>
+      </c>
+      <c r="X173" t="n">
+        <v>1102</v>
       </c>
       <c r="Y173" s="1" t="n">
-        <v>0</v>
+        <v>21.796880565609</v>
       </c>
       <c r="Z173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA173" t="e">
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>15</v>
       </c>
       <c r="AB173" s="1" t="n">
-        <v>0</v>
+        <v>16.7364672364672</v>
       </c>
     </row>
     <row r="174">
@@ -30874,49 +30874,49 @@
         <v>141</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="e">
-        <v>#NUM!</v>
+        <v>35</v>
+      </c>
+      <c r="F177" t="n">
+        <v>35</v>
       </c>
       <c r="G177" s="1" t="n">
-        <v>0</v>
+        <v>16.5511800104657</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="e">
-        <v>#NUM!</v>
+        <v>11</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11</v>
       </c>
       <c r="J177" s="1" t="n">
-        <v>0</v>
+        <v>30.6783216783217</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" t="e">
-        <v>#NUM!</v>
+        <v>14</v>
+      </c>
+      <c r="L177" t="n">
+        <v>14</v>
       </c>
       <c r="M177" s="1" t="n">
-        <v>0</v>
+        <v>18.29539290075</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="e">
-        <v>#NUM!</v>
+        <v>2637</v>
+      </c>
+      <c r="O177" t="n">
+        <v>2637</v>
       </c>
       <c r="P177" s="1" t="n">
-        <v>0</v>
+        <v>19.3146013406086</v>
       </c>
       <c r="Q177" t="n">
-        <v>0</v>
-      </c>
-      <c r="R177" t="e">
-        <v>#NUM!</v>
+        <v>125</v>
+      </c>
+      <c r="R177" t="n">
+        <v>125</v>
       </c>
       <c r="S177" s="1" t="n">
-        <v>0</v>
+        <v>18.8740898428382</v>
       </c>
     </row>
     <row r="178">
@@ -31007,296 +31007,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE51FB2AFBB2DD429D3D11FE759FFC43" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64bf7a86c00e57391fde19f51239d445">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f4877444-78fa-4cfa-bafc-d6c64fafc061" xmlns:ns3="d0fa6634-326e-4532-91a2-52bea7ac9212" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="887bdea85c641648dfa41b2556fd8924" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
-    <xsd:import namespace="d0fa6634-326e-4532-91a2-52bea7ac9212"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="25" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f4877444-78fa-4cfa-bafc-d6c64fafc061" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4d06f0b5-5743-41f2-90d3-b12c8ffc7f36" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d0fa6634-326e-4532-91a2-52bea7ac9212" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6bd4e25-e667-4943-8e38-5db701f530ee}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d0fa6634-326e-4532-91a2-52bea7ac9212">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAF4522-AFA9-48FE-A0CC-645D1945C005}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47CFD358-B456-4BE1-9450-E559B2486B5A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D0CD9AD-635B-40BB-8018-5D91ECED99E1}"/>
 </file>
--- a/output/results_pivoted_formatted.xlsx
+++ b/output/results_pivoted_formatted.xlsx
@@ -31007,4 +31007,296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE51FB2AFBB2DD429D3D11FE759FFC43" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64bf7a86c00e57391fde19f51239d445">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f4877444-78fa-4cfa-bafc-d6c64fafc061" xmlns:ns3="d0fa6634-326e-4532-91a2-52bea7ac9212" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="887bdea85c641648dfa41b2556fd8924" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
+    <xsd:import namespace="d0fa6634-326e-4532-91a2-52bea7ac9212"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="25" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f4877444-78fa-4cfa-bafc-d6c64fafc061" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4d06f0b5-5743-41f2-90d3-b12c8ffc7f36" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d0fa6634-326e-4532-91a2-52bea7ac9212" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6bd4e25-e667-4943-8e38-5db701f530ee}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d0fa6634-326e-4532-91a2-52bea7ac9212">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADED0EDF-5517-4A71-A5FA-3EE4CDBCEB69}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{407BE9AD-84F6-461B-8BA4-2428BF0E3A38}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E36B50F-F4B5-46DC-B59B-A66174012AB0}"/>
 </file>